--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-12</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2068,9 +2068,6 @@
   </si>
   <si>
     <t>BG00000000</t>
-  </si>
-  <si>
-    <t>Hzero平台</t>
   </si>
 </sst>
 </file>
@@ -3197,7 +3194,7 @@
         <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView windowWidth="20115" windowHeight="7740" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="组织信息" r:id="rId5" sheetId="2"/>
+    <sheet name="组织信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -33,7 +28,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -52,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -103,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -122,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -154,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -173,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -192,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -214,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -235,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -256,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -277,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -298,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -310,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -329,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -341,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -360,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -379,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -398,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -417,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -465,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -484,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -503,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -522,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -534,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -553,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -572,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -592,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -611,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -631,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -650,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -662,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -681,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -700,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -724,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -743,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -762,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -781,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -800,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -812,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -831,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -842,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -863,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -874,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -893,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -912,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -936,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -955,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -975,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -995,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1015,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1036,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1056,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1091,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1112,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1124,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1143,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1164,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1183,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1196,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1215,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1234,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1253,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1268,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1287,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1306,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1325,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1344,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1360,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1370,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1389,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1405,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1415,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1434,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1449,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1468,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1507,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1531,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1550,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1569,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1589,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1610,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1621,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1631,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1643,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1662,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1681,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1700,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1720,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1739,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1758,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1778,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1797,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1816,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1835,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1855,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1867,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1878,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1888,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1900,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1919,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1931,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1950,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1970,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2025,7 +1914,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>HZERO</t>
+    <t>HZERO-PLATFORM</t>
   </si>
   <si>
     <t>HZERO平台</t>
@@ -2073,12 +1962,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2114,6 +2038,188 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2122,23 +2228,20 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2147,124 +2250,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF4B183"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2295,8 +2282,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2397,13 +2570,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2412,32 +2831,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2447,48 +2878,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2561,9 +3013,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2821,285 +3270,296 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
+    <row r="13" spans="3:5">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
+    <row r="14" spans="3:5">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="6" max="6" width="25.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="18.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="17.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="21.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3109,13 +3569,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3128,7 +3588,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:9">
       <c r="E8" t="s">
         <v>59</v>
       </c>
@@ -3145,7 +3605,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3155,19 +3615,19 @@
       <c r="C10" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s" s="42">
+      <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s" s="43">
+      <c r="E10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s" s="44">
+      <c r="F10" s="3" t="s">
         <v>66</v>
       </c>
       <c r="G10" t="s">
         <v>67</v>
       </c>
-      <c r="H10" t="s" s="45">
+      <c r="H10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="I10" t="s">
@@ -3186,7 +3646,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:13">
       <c r="E11" t="s">
         <v>73</v>
       </c>
@@ -3213,6 +3673,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20115" windowHeight="7740" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="组织信息" sheetId="2" r:id="rId2"/>
+    <sheet name="组织信息" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +52,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +65,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +84,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +122,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +154,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +192,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +214,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +277,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +298,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +310,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +329,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +341,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +379,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +398,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +417,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +465,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +484,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +534,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +553,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +592,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +650,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +700,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +781,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +812,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +842,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +863,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +874,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +995,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1015,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1036,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1056,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1091,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1112,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1143,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1164,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1183,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1253,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1268,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1287,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1306,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1325,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1344,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1370,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1389,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1434,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1468,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1531,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1550,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1569,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1589,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1621,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1643,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1700,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1720,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1739,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1758,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1888,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1900,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1919,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1931,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1950,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1884,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -1914,7 +2025,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>HZERO-PLATFORM</t>
+    <t>HZERO</t>
   </si>
   <si>
     <t>HZERO平台</t>
@@ -1957,52 +2068,32 @@
   </si>
   <si>
     <t>BG00000000</t>
+  </si>
+  <si>
+    <t>租户配置表</t>
+  </si>
+  <si>
+    <t>hpfm_tenant_config</t>
+  </si>
+  <si>
+    <t>*tenant_config_id</t>
+  </si>
+  <si>
+    <t>#config_key</t>
+  </si>
+  <si>
+    <t>config_value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="41">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2038,188 +2129,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF4B183"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2228,20 +2137,23 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2250,8 +2162,144 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2282,194 +2330,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2570,259 +2432,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2831,44 +2447,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2878,69 +2482,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3013,6 +2600,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3270,296 +2860,285 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="11"/>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="15"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="24" t="s">
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
+    <row r="13" spans="1:8">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
+    <row r="14" spans="1:8">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="29" t="s">
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="33" t="s">
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="33" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="33" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="33" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="27"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="27"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="35" t="s">
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
-  <cols>
-    <col min="6" max="6" width="25.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="18.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="17.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="21.2222222222222" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3569,13 +3148,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s" s="41">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3588,7 +3167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="5:9">
+    <row r="8">
       <c r="E8" t="s">
         <v>59</v>
       </c>
@@ -3605,7 +3184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3615,19 +3194,19 @@
       <c r="C10" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s" s="42">
         <v>64</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s" s="43">
         <v>65</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s" s="44">
         <v>66</v>
       </c>
       <c r="G10" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s" s="45">
         <v>68</v>
       </c>
       <c r="I10" t="s">
@@ -3646,7 +3225,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="5:13">
+    <row r="11">
       <c r="E11" t="s">
         <v>73</v>
       </c>
@@ -3654,7 +3233,7 @@
         <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>
@@ -3672,8 +3251,33 @@
         <v>59</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s" s="46">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s" s="47">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s" s="48">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s" s="49">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F373C3-25C7-4A3F-9802-442E94EAFBC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="组织信息" r:id="rId5" sheetId="2"/>
+    <sheet name="组织信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2025,9 +2026,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>HZERO</t>
-  </si>
-  <si>
     <t>HZERO平台</t>
   </si>
   <si>
@@ -2083,13 +2081,15 @@
   </si>
   <si>
     <t>config_value</t>
+  </si>
+  <si>
+    <t>HZERO-PLATFORM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="36">
     <font>
       <sz val="12"/>
@@ -2209,94 +2209,112 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2489,6 +2507,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2504,28 +2540,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2865,36 +2883,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2903,21 +2921,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3028,11 +3046,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3070,19 +3088,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="45"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3106,39 +3124,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:13">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:13">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3148,13 +3175,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3167,24 +3194,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13">
       <c r="E8" t="s">
         <v>59</v>
       </c>
       <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
         <v>61</v>
       </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3192,66 +3219,66 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s" s="42">
+      <c r="E10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s" s="43">
+      <c r="F10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s" s="44">
+      <c r="G10" t="s">
         <v>66</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H10" t="s" s="45">
+      <c r="I10" t="s">
         <v>68</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>69</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>70</v>
-      </c>
-      <c r="K10" t="s">
-        <v>71</v>
       </c>
       <c r="L10" t="s">
         <v>58</v>
       </c>
       <c r="M10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>73</v>
       </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3259,25 +3286,27 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="s" s="46">
+      <c r="E13" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E13" t="s" s="47">
+      <c r="F13" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F13" t="s" s="48">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s" s="49">
+      <c r="H13" t="s">
         <v>78</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F373C3-25C7-4A3F-9802-442E94EAFBC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="组织信息" sheetId="2" r:id="rId2"/>
+    <sheet name="组织信息" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2026,6 +2025,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>HZERO</t>
+  </si>
+  <si>
     <t>HZERO平台</t>
   </si>
   <si>
@@ -2083,13 +2085,14 @@
     <t>config_value</t>
   </si>
   <si>
-    <t>HZERO-PLATFORM</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="36">
     <font>
       <sz val="12"/>
@@ -2209,112 +2212,94 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2507,24 +2492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2540,10 +2507,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2883,36 +2868,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2921,21 +2906,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3046,11 +3031,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3088,19 +3073,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="45"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3124,48 +3109,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3175,13 +3151,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" t="s" s="41">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3194,24 +3170,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8">
       <c r="E8" t="s">
         <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3219,66 +3195,66 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="D10" t="s" s="42">
         <v>64</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="E10" t="s" s="43">
         <v>65</v>
       </c>
+      <c r="F10" t="s" s="44">
+        <v>66</v>
+      </c>
       <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="40" t="s">
         <v>67</v>
       </c>
+      <c r="H10" t="s" s="45">
+        <v>68</v>
+      </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" t="s">
         <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11">
       <c r="E11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3286,27 +3262,39 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="D13" t="s" s="46">
         <v>76</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="44" t="s">
+      <c r="E13" t="s" s="47">
         <v>77</v>
       </c>
+      <c r="F13" t="s" s="48">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s" s="49">
+        <v>78</v>
+      </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="组织信息" r:id="rId5" sheetId="2"/>
+    <sheet name="组织信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -52,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -103,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -122,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -154,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -173,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -192,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -214,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -235,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -256,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -277,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -298,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -310,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -329,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -341,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -360,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -379,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -398,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -417,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -465,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -484,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -503,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -522,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -534,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -553,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -572,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -592,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -611,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -631,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -650,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -662,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -681,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -700,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -724,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -743,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -762,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -781,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -800,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -812,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -831,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -842,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -863,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -874,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -893,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -912,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -936,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -955,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -975,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -995,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1015,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1036,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1056,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1091,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1112,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1124,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1143,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1164,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1183,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1196,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1215,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1234,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1253,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1268,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1287,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1306,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1325,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1344,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1360,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1370,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1389,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1405,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1415,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1434,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1449,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1468,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1507,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1531,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1550,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1569,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1589,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1610,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1621,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1631,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1643,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1662,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1681,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1700,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1720,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1739,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1758,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1778,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1797,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1816,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1835,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1855,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1867,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1878,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1888,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1900,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1919,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1931,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1950,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1970,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2025,51 +1914,54 @@
     <t>0</t>
   </si>
   <si>
+    <t>HZERO-PLATFORM</t>
+  </si>
+  <si>
+    <t>HZERO平台</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>集团信息</t>
+  </si>
+  <si>
+    <t>hpfm_group</t>
+  </si>
+  <si>
+    <t>*group_id</t>
+  </si>
+  <si>
+    <t>#group_num</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>#tenant_id</t>
+  </si>
+  <si>
+    <t>unit_id</t>
+  </si>
+  <si>
+    <t>source_key</t>
+  </si>
+  <si>
+    <t>source_code</t>
+  </si>
+  <si>
+    <t>core_flag</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>BG00000000</t>
+  </si>
+  <si>
     <t>HZERO</t>
   </si>
   <si>
-    <t>HZERO平台</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>集团信息</t>
-  </si>
-  <si>
-    <t>hpfm_group</t>
-  </si>
-  <si>
-    <t>*group_id</t>
-  </si>
-  <si>
-    <t>#group_num</t>
-  </si>
-  <si>
-    <t>group_name</t>
-  </si>
-  <si>
-    <t>#tenant_id</t>
-  </si>
-  <si>
-    <t>unit_id</t>
-  </si>
-  <si>
-    <t>source_key</t>
-  </si>
-  <si>
-    <t>source_code</t>
-  </si>
-  <si>
-    <t>core_flag</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>BG00000000</t>
-  </si>
-  <si>
     <t>租户配置表</t>
   </si>
   <si>
@@ -2085,18 +1977,65 @@
     <t>config_value</t>
   </si>
   <si>
-    <t>test</t>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>isRegister</t>
+  </si>
+  <si>
+    <t>remoteTokenEnabled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2132,6 +2071,188 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2140,23 +2261,20 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2165,144 +2283,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF4B183"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2333,8 +2315,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2435,13 +2603,265 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2450,32 +2870,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2485,52 +2917,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2603,9 +3052,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2863,285 +3309,298 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5555555555556" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
+    <row r="2" spans="5:5">
+      <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+    <row r="4" spans="3:7">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
+    <row r="13" spans="3:5">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
+    <row r="14" spans="3:5">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="4" max="4" width="13.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="19.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="24.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="20.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="19.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="17.1666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3151,13 +3610,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3170,7 +3629,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:9">
       <c r="E8" t="s">
         <v>59</v>
       </c>
@@ -3187,7 +3646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3197,19 +3656,19 @@
       <c r="C10" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s" s="42">
+      <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s" s="43">
+      <c r="E10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s" s="44">
+      <c r="F10" s="3" t="s">
         <v>66</v>
       </c>
       <c r="G10" t="s">
         <v>67</v>
       </c>
-      <c r="H10" t="s" s="45">
+      <c r="H10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="I10" t="s">
@@ -3228,7 +3687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:13">
       <c r="E11" t="s">
         <v>73</v>
       </c>
@@ -3245,7 +3704,7 @@
         <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
         <v>62</v>
@@ -3254,7 +3713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3262,39 +3721,82 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s" s="46">
         <v>76</v>
       </c>
-      <c r="E13" t="s" s="47">
+      <c r="D13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F13" t="s" s="48">
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G13" t="s" s="49">
-        <v>78</v>
+      <c r="G13" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="14">
-      <c r="E14" t="s">
+    <row r="14" spans="5:8">
+      <c r="E14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" t="s">
-        <v>80</v>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8">
+      <c r="E15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8">
+      <c r="E16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14220" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,18 +21,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +52,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +65,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +84,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +122,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +154,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +192,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +214,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +277,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +298,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +310,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +329,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +341,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +379,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +398,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +417,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +465,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +484,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +534,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +553,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +592,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +650,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +700,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +781,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +812,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +842,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +863,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +874,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +995,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1015,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1036,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1056,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1091,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1112,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1143,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1164,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1183,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1253,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1268,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1287,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1306,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1325,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1344,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1370,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1389,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1434,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1468,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1531,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1550,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1569,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1589,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1621,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1643,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1700,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1720,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1739,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1758,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1888,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1900,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1919,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1931,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1950,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1884,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -1911,131 +2022,99 @@
     <t>enabled_flag</t>
   </si>
   <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>HZERO</t>
+  </si>
+  <si>
+    <t>HZERO平台</t>
+  </si>
+  <si>
+    <t>HZERO平台11</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>集团信息</t>
+  </si>
+  <si>
+    <t>hpfm_group</t>
+  </si>
+  <si>
+    <t>*group_id</t>
+  </si>
+  <si>
+    <t>#group_num</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>#tenant_id</t>
+  </si>
+  <si>
+    <t>unit_id</t>
+  </si>
+  <si>
+    <t>source_key</t>
+  </si>
+  <si>
+    <t>source_code</t>
+  </si>
+  <si>
+    <t>core_flag</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>BG00000000</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>租户配置表</t>
+  </si>
+  <si>
+    <t>hpfm_tenant_config</t>
+  </si>
+  <si>
+    <t>*tenant_config_id</t>
+  </si>
+  <si>
+    <t>#config_key</t>
+  </si>
+  <si>
+    <t>config_value</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>HZERO-PLATFORM</t>
-  </si>
-  <si>
-    <t>HZERO平台</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>集团信息</t>
-  </si>
-  <si>
-    <t>hpfm_group</t>
-  </si>
-  <si>
-    <t>*group_id</t>
-  </si>
-  <si>
-    <t>#group_num</t>
-  </si>
-  <si>
-    <t>group_name</t>
-  </si>
-  <si>
-    <t>#tenant_id</t>
-  </si>
-  <si>
-    <t>unit_id</t>
-  </si>
-  <si>
-    <t>source_key</t>
-  </si>
-  <si>
-    <t>source_code</t>
-  </si>
-  <si>
-    <t>core_flag</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>BG00000000</t>
-  </si>
-  <si>
-    <t>HZERO</t>
-  </si>
-  <si>
-    <t>租户配置表</t>
-  </si>
-  <si>
-    <t>hpfm_tenant_config</t>
-  </si>
-  <si>
-    <t>*tenant_config_id</t>
-  </si>
-  <si>
-    <t>#config_key</t>
-  </si>
-  <si>
-    <t>config_value</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>isRegister</t>
-  </si>
-  <si>
-    <t>remoteTokenEnabled</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="41">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2071,188 +2150,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF4B183"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2261,20 +2158,23 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2283,8 +2183,162 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2315,194 +2369,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2603,265 +2471,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2870,44 +2486,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2917,69 +2521,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3052,6 +2640,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3309,298 +2900,290 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="C1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="13"/>
+    <row r="2" spans="1:8">
+      <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="16" t="s">
+    <row r="4" spans="1:8">
+      <c r="C4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="15"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="26" t="s">
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="29" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="23" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+    <row r="13" spans="1:8">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+    <row r="14" spans="1:8">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="31" t="s">
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
     </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="35" t="s">
+    <row r="20" spans="3:5">
+      <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="35" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="35" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="35" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="45"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="45"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="37" t="s">
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="13.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="19.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="24.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="20.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="19.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="17.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="1:15">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3610,13 +3193,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3628,25 +3211,37 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="8" spans="5:9">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3654,66 +3249,78 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
         <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="N10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="11" spans="5:13">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
         <v>61</v>
       </c>
-      <c r="H11" t="s">
-        <v>59</v>
-      </c>
       <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
         <v>62</v>
       </c>
-      <c r="K11" t="s">
-        <v>75</v>
-      </c>
       <c r="L11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3721,82 +3328,53 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
         <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="5:8">
-      <c r="E14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="5:8">
-      <c r="E15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="5:8">
-      <c r="E16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8">
-      <c r="E17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="6" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-org.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14220" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2037,9 +2037,6 @@
     <t>HZERO平台</t>
   </si>
   <si>
-    <t>HZERO平台11</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -2082,25 +2079,12 @@
     <t>BG00000000</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>租户配置表</t>
-  </si>
-  <si>
-    <t>hpfm_tenant_config</t>
-  </si>
-  <si>
-    <t>*tenant_config_id</t>
-  </si>
-  <si>
-    <t>#config_key</t>
-  </si>
-  <si>
-    <t>config_value</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>HZERO Platform</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZERO平台</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>HZERO-PLATFORM</t>
@@ -2111,7 +2095,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2313,30 +2297,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2476,7 +2436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2542,10 +2502,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2561,7 +2518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2930,11 +2886,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2943,21 +2899,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3068,11 +3024,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
@@ -3110,19 +3066,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="45"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
@@ -3147,15 +3103,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J23" sqref="J22:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="11" max="11" width="18.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3222,23 +3181,23 @@
       <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F8" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
         <v>64</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>65</v>
       </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
+      <c r="K8">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3249,37 +3208,37 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="E10" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="F10" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="G10" t="s">
         <v>70</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="I10" t="s">
         <v>72</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>73</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>74</v>
-      </c>
-      <c r="K10" t="s">
-        <v>75</v>
       </c>
       <c r="L10" t="s">
         <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
         <v>59</v>
@@ -3290,10 +3249,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
         <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>78</v>
       </c>
       <c r="G11" t="s">
         <v>63</v>
@@ -3302,79 +3261,27 @@
         <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
         <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s">
         <v>61</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" t="s">
-        <v>79</v>
+        <v>65</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>